--- a/projetomvcestoque/modelagem banco supermercado.xlsx
+++ b/projetomvcestoque/modelagem banco supermercado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>NOME</t>
   </si>
@@ -142,12 +142,143 @@
       <t>select produtos.nome,produtos.quantidade,produtos.preco,fornecedores.nome,fornecedores.cnpj from produtos join fornecedores on produtos.fornecedor_id = fornecedores.id;</t>
     </r>
   </si>
+  <si>
+    <t>vendas realizadas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vendas.id,produtos.nome,vendas.total,clientes.nome,clientes.cpf </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vendas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> produtos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clientes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vendas.produto_id = produtos.id  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AND </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vendas.cliente_id = clientes.id;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +358,14 @@
       <color rgb="FF930989"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -366,15 +505,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>81205</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>233927</xdr:rowOff>
+      <xdr:colOff>8558</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>153206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>158195</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>29646</xdr:rowOff>
+      <xdr:colOff>85548</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>158798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -391,7 +530,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="896480" y="4592825"/>
+          <a:off x="823833" y="6691553"/>
           <a:ext cx="7890719" cy="1781440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -411,6 +550,44 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>961023</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190008</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="815275" y="4988517"/>
+          <a:ext cx="4133333" cy="1352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -707,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,6 +1157,16 @@
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B36" s="14"/>
